--- a/Webscraping with BeautifulSoup/AlertTracker.xlsx
+++ b/Webscraping with BeautifulSoup/AlertTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping with BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F82716F-500A-4DD1-B439-E8F23E822623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C614909E-6568-4D1B-BE6A-52788A25C864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Sector</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Market Cap</t>
   </si>
   <si>
-    <t xml:space="preserve">Symbol </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Change % Low</t>
   </si>
   <si>
-    <t>Change % High (alert price vs current price)</t>
-  </si>
-  <si>
     <t>AAPL</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>Technology</t>
   </si>
   <si>
-    <t>1.491T</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
@@ -91,12 +82,177 @@
   </si>
   <si>
     <t>Microsoft Corporation</t>
+  </si>
+  <si>
+    <t>Change % High</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>Tesla, Inc.</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>PayPal Holdings, Inc.</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>BAS.DE</t>
+  </si>
+  <si>
+    <t>BASF SE</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Agilent Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>American Airlines Group Inc.</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t>Advance Auto Parts, Inc.</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>AbbVie Inc.</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>AmerisourceBergen Corporation</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>Automatic Data Processing, Inc.</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>Amazon.com, Inc.</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>International Business Machines Corporation</t>
+  </si>
+  <si>
+    <t>115.311B</t>
+  </si>
+  <si>
+    <t>27.731B</t>
+  </si>
+  <si>
+    <t>7.198B</t>
+  </si>
+  <si>
+    <t>9.7B</t>
+  </si>
+  <si>
+    <t>1.529T</t>
+  </si>
+  <si>
+    <t>170.772B</t>
+  </si>
+  <si>
+    <t>19.72B</t>
+  </si>
+  <si>
+    <t>67.062B</t>
+  </si>
+  <si>
+    <t>1.32T</t>
+  </si>
+  <si>
+    <t>1.493T</t>
+  </si>
+  <si>
+    <t>187.731B</t>
+  </si>
+  <si>
+    <t>190.121B</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Facebook, Inc.</t>
+  </si>
+  <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
+    <t>674.467B</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>Caterpillar Inc.</t>
+  </si>
+  <si>
+    <t>71.682B</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>Alphabet Inc.</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>49.019B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,11 +282,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,134 +566,835 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
       <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
         <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43992.849097222221</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>89.81</v>
+      </c>
+      <c r="F2">
+        <v>90.17</v>
+      </c>
+      <c r="G2">
+        <v>-0.35999999999999943</v>
+      </c>
+      <c r="H2">
+        <v>-0.4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2">
+        <v>41.22</v>
+      </c>
+      <c r="K2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="L2">
+        <v>61.13</v>
+      </c>
+      <c r="M2">
+        <v>93.04</v>
+      </c>
+      <c r="N2">
+        <v>-0.43</v>
+      </c>
+      <c r="O2">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43992.849097222221</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>17.02</v>
+      </c>
+      <c r="F3">
+        <v>17.87</v>
+      </c>
+      <c r="G3">
+        <v>-0.85000000000000142</v>
+      </c>
+      <c r="H3">
+        <v>-4.76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>-1.7</v>
+      </c>
+      <c r="L3">
+        <v>8.25</v>
+      </c>
+      <c r="M3">
+        <v>34.99</v>
+      </c>
+      <c r="N3">
+        <v>-4.87</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43992.849108796298</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>140.38</v>
+      </c>
+      <c r="F4">
+        <v>142.63999999999999</v>
+      </c>
+      <c r="G4">
+        <v>-2.2599999999999909</v>
+      </c>
+      <c r="H4">
+        <v>-1.58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4">
+        <v>25.52</v>
+      </c>
+      <c r="K4">
+        <v>5.5</v>
+      </c>
+      <c r="L4">
+        <v>71.33</v>
+      </c>
+      <c r="M4">
+        <v>171.43</v>
+      </c>
+      <c r="N4">
+        <v>-1.58</v>
+      </c>
+      <c r="O4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43992.849120370367</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43990</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>343.99</v>
-      </c>
-      <c r="F2">
-        <v>342</v>
-      </c>
-      <c r="G2">
-        <v>1.99</v>
-      </c>
-      <c r="H2">
-        <f>(E2-F2)/F2*100</f>
-        <v>0.58187134502924243</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="E5">
+        <v>352.84</v>
+      </c>
+      <c r="F5">
+        <v>351.74</v>
+      </c>
+      <c r="G5">
+        <v>1.0999999999999659</v>
+      </c>
+      <c r="H5">
+        <v>0.31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5">
+        <v>27.72</v>
+      </c>
+      <c r="K5">
+        <v>12.73</v>
+      </c>
+      <c r="L5">
+        <v>190.3</v>
+      </c>
+      <c r="M5">
+        <v>354.77</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43992.849120370367</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>96.9</v>
+      </c>
+      <c r="F6">
+        <v>98.51</v>
+      </c>
+      <c r="G6">
+        <v>-1.6099999999999994</v>
+      </c>
+      <c r="H6">
+        <v>-1.63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="K6">
+        <v>5.65</v>
+      </c>
+      <c r="L6">
+        <v>62.55</v>
+      </c>
+      <c r="M6">
+        <v>99.35</v>
+      </c>
+      <c r="N6">
+        <v>-1.63</v>
+      </c>
+      <c r="O6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43992.849131944444</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>96.95</v>
+      </c>
+      <c r="F7">
+        <v>97.18</v>
+      </c>
+      <c r="G7">
+        <v>-0.23000000000000398</v>
+      </c>
+      <c r="H7">
+        <v>-0.24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7">
+        <v>12.78</v>
+      </c>
+      <c r="K7">
+        <v>7.59</v>
+      </c>
+      <c r="L7">
+        <v>72.06</v>
+      </c>
+      <c r="M7">
+        <v>102.99</v>
+      </c>
+      <c r="N7">
+        <v>-0.24</v>
+      </c>
+      <c r="O7">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43992.849143518521</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>156.04</v>
+      </c>
+      <c r="F8">
+        <v>156.74</v>
+      </c>
+      <c r="G8">
+        <v>-0.70000000000001705</v>
+      </c>
+      <c r="H8">
+        <v>-0.45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8">
+        <v>26.78</v>
+      </c>
+      <c r="K8">
+        <v>5.83</v>
+      </c>
+      <c r="L8">
+        <v>103.11</v>
+      </c>
+      <c r="M8">
+        <v>182.32</v>
+      </c>
+      <c r="N8">
+        <v>-0.45</v>
+      </c>
+      <c r="O8">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43992.849143518521</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2647.45</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2654.51</v>
+      </c>
+      <c r="G9">
+        <v>-7.0600000000004002</v>
+      </c>
+      <c r="H9">
+        <v>-0.27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9">
+        <v>126.45</v>
+      </c>
+      <c r="K9">
+        <v>20.94</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1626.03</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2722.35</v>
+      </c>
+      <c r="N9">
+        <v>-0.27</v>
+      </c>
+      <c r="O9">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43992.84915509259</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>53.37</v>
+      </c>
+      <c r="F10">
+        <v>55.2</v>
+      </c>
+      <c r="G10">
+        <v>-1.8300000000000054</v>
+      </c>
+      <c r="H10">
+        <v>-3.32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>6.22</v>
+      </c>
+      <c r="K10">
+        <v>8.58</v>
+      </c>
+      <c r="L10">
+        <v>37.35</v>
+      </c>
+      <c r="M10">
+        <v>72.17</v>
+      </c>
+      <c r="N10">
+        <v>-3.42</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43992.849166666667</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>132.44</v>
+      </c>
+      <c r="F11">
+        <v>132.44</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11">
+        <v>13.99</v>
+      </c>
+      <c r="K11">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="L11">
+        <v>87.5</v>
+      </c>
+      <c r="M11">
+        <v>150.55000000000001</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43992.849166666667</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12">
+        <v>236.73</v>
+      </c>
+      <c r="F12">
+        <v>236.73</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="K12">
+        <v>7.29</v>
+      </c>
+      <c r="L12">
+        <v>137.1</v>
+      </c>
+      <c r="M12">
+        <v>241.21</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43992.849178240744</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1464.7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1464.7</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13">
+        <v>29.55</v>
+      </c>
+      <c r="K13">
+        <v>49.57</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1008.87</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1530.74</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43992.849189814813</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>129.87</v>
+      </c>
+      <c r="F14">
+        <v>129.87</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>12.86</v>
+      </c>
+      <c r="K14">
+        <v>10.1</v>
+      </c>
+      <c r="L14">
+        <v>90.56</v>
+      </c>
+      <c r="M14">
+        <v>158.75</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="J2">
-        <v>36928091</v>
-      </c>
-      <c r="K2">
-        <v>44967770</v>
-      </c>
-      <c r="L2">
-        <v>190.3</v>
-      </c>
-      <c r="M2">
-        <v>345.61</v>
-      </c>
-      <c r="N2" s="2">
-        <v>-0.05</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C15" s="2">
+        <v>43992.849189814813</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>196.84</v>
+      </c>
+      <c r="F15">
+        <v>193.93</v>
+      </c>
+      <c r="G15">
+        <v>2.9099999999999966</v>
+      </c>
+      <c r="H15">
+        <v>1.5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>130.78</v>
+      </c>
+      <c r="M15">
+        <v>198.52</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43992.84920138889</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>159.91</v>
+      </c>
+      <c r="F16">
+        <v>158.51</v>
+      </c>
+      <c r="G16">
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="H16">
+        <v>0.88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16">
+        <v>101.14</v>
+      </c>
+      <c r="K16">
+        <v>1.58</v>
+      </c>
+      <c r="L16">
+        <v>82.07</v>
+      </c>
+      <c r="M16">
+        <v>160.88999999999999</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3">
-        <v>43991.816481481481</v>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43992.84920138889</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1025.05</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1014</v>
+      </c>
+      <c r="G17">
+        <v>11.049999999999955</v>
+      </c>
+      <c r="H17">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17">
+        <v>-0.81</v>
+      </c>
+      <c r="L17">
+        <v>207.51</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1027.48</v>
+      </c>
+      <c r="N17">
+        <v>-0.09</v>
+      </c>
+      <c r="O17">
+        <v>1.0900000000000001</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:O17">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Webscraping with BeautifulSoup/AlertTracker.xlsx
+++ b/Webscraping with BeautifulSoup/AlertTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping with BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C614909E-6568-4D1B-BE6A-52788A25C864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3370B898-227A-43F3-8E7F-B8D85822B169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,42 +177,6 @@
     <t>International Business Machines Corporation</t>
   </si>
   <si>
-    <t>115.311B</t>
-  </si>
-  <si>
-    <t>27.731B</t>
-  </si>
-  <si>
-    <t>7.198B</t>
-  </si>
-  <si>
-    <t>9.7B</t>
-  </si>
-  <si>
-    <t>1.529T</t>
-  </si>
-  <si>
-    <t>170.772B</t>
-  </si>
-  <si>
-    <t>19.72B</t>
-  </si>
-  <si>
-    <t>67.062B</t>
-  </si>
-  <si>
-    <t>1.32T</t>
-  </si>
-  <si>
-    <t>1.493T</t>
-  </si>
-  <si>
-    <t>187.731B</t>
-  </si>
-  <si>
-    <t>190.121B</t>
-  </si>
-  <si>
     <t>FB</t>
   </si>
   <si>
@@ -222,28 +186,64 @@
     <t>Communication Services</t>
   </si>
   <si>
-    <t>674.467B</t>
-  </si>
-  <si>
     <t>CAT</t>
   </si>
   <si>
     <t>Caterpillar Inc.</t>
   </si>
   <si>
-    <t>71.682B</t>
-  </si>
-  <si>
     <t>GOOGL</t>
   </si>
   <si>
     <t>Alphabet Inc.</t>
   </si>
   <si>
-    <t>1T</t>
-  </si>
-  <si>
-    <t>49.019B</t>
+    <t>19.079B</t>
+  </si>
+  <si>
+    <t>1.324T</t>
+  </si>
+  <si>
+    <t>47.807B</t>
+  </si>
+  <si>
+    <t>1.512T</t>
+  </si>
+  <si>
+    <t>1.469T</t>
+  </si>
+  <si>
+    <t>26.8B</t>
+  </si>
+  <si>
+    <t>6.39B</t>
+  </si>
+  <si>
+    <t>9.454B</t>
+  </si>
+  <si>
+    <t>166.983B</t>
+  </si>
+  <si>
+    <t>63.74B</t>
+  </si>
+  <si>
+    <t>67.256B</t>
+  </si>
+  <si>
+    <t>655.407B</t>
+  </si>
+  <si>
+    <t>986.42B</t>
+  </si>
+  <si>
+    <t>108.9B</t>
+  </si>
+  <si>
+    <t>186.334B</t>
+  </si>
+  <si>
+    <t>185.715B</t>
   </si>
 </sst>
 </file>
@@ -646,28 +646,28 @@
         <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>43992.849097222221</v>
+        <v>43992.871851851851</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2">
-        <v>89.81</v>
+        <v>86.79</v>
       </c>
       <c r="F2">
         <v>90.17</v>
       </c>
       <c r="G2">
-        <v>-0.35999999999999943</v>
+        <v>-3.3799999999999955</v>
       </c>
       <c r="H2">
-        <v>-0.4</v>
+        <v>-3.75</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J2">
-        <v>41.22</v>
+        <v>39.83</v>
       </c>
       <c r="K2">
         <v>2.1800000000000002</v>
@@ -679,7 +679,7 @@
         <v>93.04</v>
       </c>
       <c r="N2">
-        <v>-0.43</v>
+        <v>-3.94</v>
       </c>
       <c r="O2">
         <v>0.42</v>
@@ -693,25 +693,25 @@
         <v>33</v>
       </c>
       <c r="C3" s="2">
-        <v>43992.849097222221</v>
+        <v>43992.871863425928</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
       </c>
       <c r="E3">
-        <v>17.02</v>
+        <v>15.11</v>
       </c>
       <c r="F3">
         <v>17.87</v>
       </c>
       <c r="G3">
-        <v>-0.85000000000000142</v>
+        <v>-2.7600000000000016</v>
       </c>
       <c r="H3">
-        <v>-4.76</v>
+        <v>-15.44</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -726,7 +726,7 @@
         <v>34.99</v>
       </c>
       <c r="N3">
-        <v>-4.87</v>
+        <v>-15.56</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -740,28 +740,28 @@
         <v>36</v>
       </c>
       <c r="C4" s="2">
-        <v>43992.849108796298</v>
+        <v>43992.871874999997</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>140.38</v>
+        <v>136.82</v>
       </c>
       <c r="F4">
         <v>142.63999999999999</v>
       </c>
       <c r="G4">
-        <v>-2.2599999999999909</v>
+        <v>-5.8199999999999932</v>
       </c>
       <c r="H4">
-        <v>-1.58</v>
+        <v>-4.08</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J4">
-        <v>25.52</v>
+        <v>24.87</v>
       </c>
       <c r="K4">
         <v>5.5</v>
@@ -773,7 +773,7 @@
         <v>171.43</v>
       </c>
       <c r="N4">
-        <v>-1.58</v>
+        <v>-4.1399999999999997</v>
       </c>
       <c r="O4">
         <v>0.04</v>
@@ -787,28 +787,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>43992.849120370367</v>
+        <v>43992.871886574074</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5">
-        <v>352.84</v>
+        <v>348.82</v>
       </c>
       <c r="F5">
         <v>351.74</v>
       </c>
       <c r="G5">
-        <v>1.0999999999999659</v>
+        <v>-2.9200000000000159</v>
       </c>
       <c r="H5">
-        <v>0.31</v>
+        <v>-0.83</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J5">
-        <v>27.72</v>
+        <v>27.41</v>
       </c>
       <c r="K5">
         <v>12.73</v>
@@ -820,7 +820,7 @@
         <v>354.77</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-0.84</v>
       </c>
       <c r="O5">
         <v>0.78</v>
@@ -834,28 +834,28 @@
         <v>38</v>
       </c>
       <c r="C6" s="2">
-        <v>43992.849120370367</v>
+        <v>43992.871898148151</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
       </c>
       <c r="E6">
-        <v>96.9</v>
+        <v>94.75</v>
       </c>
       <c r="F6">
         <v>98.51</v>
       </c>
       <c r="G6">
-        <v>-1.6099999999999994</v>
+        <v>-3.7600000000000051</v>
       </c>
       <c r="H6">
-        <v>-1.63</v>
+        <v>-3.82</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J6">
-        <v>17.149999999999999</v>
+        <v>16.77</v>
       </c>
       <c r="K6">
         <v>5.65</v>
@@ -867,7 +867,7 @@
         <v>99.35</v>
       </c>
       <c r="N6">
-        <v>-1.63</v>
+        <v>-3.82</v>
       </c>
       <c r="O6">
         <v>0.05</v>
@@ -881,28 +881,28 @@
         <v>41</v>
       </c>
       <c r="C7" s="2">
-        <v>43992.849131944444</v>
+        <v>43992.87190972222</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7">
-        <v>96.95</v>
+        <v>93.8</v>
       </c>
       <c r="F7">
         <v>97.18</v>
       </c>
       <c r="G7">
-        <v>-0.23000000000000398</v>
+        <v>-3.3800000000000097</v>
       </c>
       <c r="H7">
-        <v>-0.24</v>
+        <v>-3.48</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7">
-        <v>12.78</v>
+        <v>12.37</v>
       </c>
       <c r="K7">
         <v>7.59</v>
@@ -914,7 +914,7 @@
         <v>102.99</v>
       </c>
       <c r="N7">
-        <v>-0.24</v>
+        <v>-3.52</v>
       </c>
       <c r="O7">
         <v>0.87</v>
@@ -928,28 +928,28 @@
         <v>43</v>
       </c>
       <c r="C8" s="2">
-        <v>43992.849143518521</v>
+        <v>43992.871921296297</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8">
-        <v>156.04</v>
+        <v>148.31</v>
       </c>
       <c r="F8">
         <v>156.74</v>
       </c>
       <c r="G8">
-        <v>-0.70000000000001705</v>
+        <v>-8.4300000000000068</v>
       </c>
       <c r="H8">
-        <v>-0.45</v>
+        <v>-5.38</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="J8">
-        <v>26.78</v>
+        <v>25.45</v>
       </c>
       <c r="K8">
         <v>5.83</v>
@@ -961,7 +961,7 @@
         <v>182.32</v>
       </c>
       <c r="N8">
-        <v>-0.45</v>
+        <v>-5.38</v>
       </c>
       <c r="O8">
         <v>0.36</v>
@@ -975,28 +975,28 @@
         <v>45</v>
       </c>
       <c r="C9" s="2">
-        <v>43992.849143518521</v>
+        <v>43992.871932870374</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="1">
-        <v>2647.45</v>
+        <v>2655.3</v>
       </c>
       <c r="F9" s="1">
         <v>2654.51</v>
       </c>
       <c r="G9">
-        <v>-7.0600000000004002</v>
+        <v>0.78999999999996362</v>
       </c>
       <c r="H9">
-        <v>-0.27</v>
+        <v>0.03</v>
       </c>
       <c r="I9" t="s">
         <v>56</v>
       </c>
       <c r="J9">
-        <v>126.45</v>
+        <v>126.83</v>
       </c>
       <c r="K9">
         <v>20.94</v>
@@ -1011,7 +1011,7 @@
         <v>-0.27</v>
       </c>
       <c r="O9">
-        <v>0.19</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1022,28 +1022,28 @@
         <v>27</v>
       </c>
       <c r="C10" s="2">
-        <v>43992.84915509259</v>
+        <v>43992.871944444443</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10">
-        <v>53.37</v>
+        <v>52.05</v>
       </c>
       <c r="F10">
         <v>55.2</v>
       </c>
       <c r="G10">
-        <v>-1.8300000000000054</v>
+        <v>-3.1500000000000057</v>
       </c>
       <c r="H10">
-        <v>-3.32</v>
+        <v>-5.71</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="J10">
-        <v>6.22</v>
+        <v>6.07</v>
       </c>
       <c r="K10">
         <v>8.58</v>
@@ -1055,7 +1055,7 @@
         <v>72.17</v>
       </c>
       <c r="N10">
-        <v>-3.42</v>
+        <v>-5.96</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1063,34 +1063,34 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2">
-        <v>43992.849166666667</v>
+        <v>43992.87195601852</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
       </c>
       <c r="E11">
-        <v>132.44</v>
+        <v>124.26</v>
       </c>
       <c r="F11">
         <v>132.44</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>-8.1799999999999926</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-6.18</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11">
-        <v>13.99</v>
+        <v>13.13</v>
       </c>
       <c r="K11">
         <v>9.4600000000000009</v>
@@ -1102,7 +1102,7 @@
         <v>150.55000000000001</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>-6.27</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1110,34 +1110,34 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2">
-        <v>43992.849166666667</v>
+        <v>43992.871967592589</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>236.73</v>
+        <v>230.04</v>
       </c>
       <c r="F12">
         <v>236.73</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>-6.6899999999999977</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>-2.83</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J12">
-        <v>32.479999999999997</v>
+        <v>31.56</v>
       </c>
       <c r="K12">
         <v>7.29</v>
@@ -1149,7 +1149,7 @@
         <v>241.21</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>-2.95</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1157,34 +1157,34 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2">
-        <v>43992.849178240744</v>
+        <v>43992.871979166666</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
-        <v>1464.7</v>
+        <v>1444.49</v>
       </c>
       <c r="F13" s="1">
         <v>1464.7</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>-20.210000000000036</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-1.38</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J13">
-        <v>29.55</v>
+        <v>29.14</v>
       </c>
       <c r="K13">
         <v>49.57</v>
@@ -1196,7 +1196,7 @@
         <v>1530.74</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>-1.47</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>47</v>
       </c>
       <c r="C14" s="2">
-        <v>43992.849189814813</v>
+        <v>43992.871990740743</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14">
-        <v>129.87</v>
+        <v>122.65</v>
       </c>
       <c r="F14">
         <v>129.87</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>-7.2199999999999989</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>-5.56</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="J14">
-        <v>12.86</v>
+        <v>12.15</v>
       </c>
       <c r="K14">
         <v>10.1</v>
@@ -1243,7 +1243,7 @@
         <v>158.75</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>-5.56</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>43992.849189814813</v>
+        <v>43992.872002314813</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15">
-        <v>196.84</v>
+        <v>193.73</v>
       </c>
       <c r="F15">
         <v>193.93</v>
       </c>
       <c r="G15">
-        <v>2.9099999999999966</v>
+        <v>-0.20000000000001705</v>
       </c>
       <c r="H15">
-        <v>1.5</v>
+        <v>-0.1</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J15">
-        <v>32.799999999999997</v>
+        <v>32.28</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -1290,7 +1290,7 @@
         <v>198.52</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="O15">
         <v>2.34</v>
@@ -1304,28 +1304,28 @@
         <v>24</v>
       </c>
       <c r="C16" s="2">
-        <v>43992.84920138889</v>
+        <v>43992.872002314813</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16">
-        <v>159.91</v>
+        <v>158.72</v>
       </c>
       <c r="F16">
         <v>158.51</v>
       </c>
       <c r="G16">
-        <v>1.4000000000000057</v>
+        <v>0.21000000000000796</v>
       </c>
       <c r="H16">
-        <v>0.88</v>
+        <v>0.13</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J16">
-        <v>101.14</v>
+        <v>100.39</v>
       </c>
       <c r="K16">
         <v>1.58</v>
@@ -1351,25 +1351,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>43992.84920138889</v>
+        <v>43992.872013888889</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="1">
-        <v>1025.05</v>
+        <v>1001.29</v>
       </c>
       <c r="F17" s="1">
         <v>1014</v>
       </c>
       <c r="G17">
-        <v>11.049999999999955</v>
+        <v>-12.710000000000036</v>
       </c>
       <c r="H17">
-        <v>1.0900000000000001</v>
+        <v>-1.25</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
         <v>22</v>
@@ -1384,7 +1384,7 @@
         <v>1027.48</v>
       </c>
       <c r="N17">
-        <v>-0.09</v>
+        <v>-1.25</v>
       </c>
       <c r="O17">
         <v>1.0900000000000001</v>

--- a/Webscraping with BeautifulSoup/AlertTracker.xlsx
+++ b/Webscraping with BeautifulSoup/AlertTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping with BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3370B898-227A-43F3-8E7F-B8D85822B169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B93434-ED65-493A-AA67-6902AFFDEB7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28785" yWindow="15" windowWidth="22950" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AlertTracker" sheetId="2" r:id="rId1"/>
@@ -198,52 +198,52 @@
     <t>Alphabet Inc.</t>
   </si>
   <si>
-    <t>19.079B</t>
-  </si>
-  <si>
-    <t>1.324T</t>
-  </si>
-  <si>
-    <t>47.807B</t>
-  </si>
-  <si>
-    <t>1.512T</t>
-  </si>
-  <si>
-    <t>1.469T</t>
-  </si>
-  <si>
-    <t>26.8B</t>
-  </si>
-  <si>
-    <t>6.39B</t>
-  </si>
-  <si>
-    <t>9.454B</t>
-  </si>
-  <si>
-    <t>166.983B</t>
-  </si>
-  <si>
-    <t>63.74B</t>
-  </si>
-  <si>
-    <t>67.256B</t>
-  </si>
-  <si>
-    <t>655.407B</t>
-  </si>
-  <si>
-    <t>986.42B</t>
-  </si>
-  <si>
-    <t>108.9B</t>
-  </si>
-  <si>
-    <t>186.334B</t>
-  </si>
-  <si>
-    <t>185.715B</t>
+    <t>26.589B</t>
+  </si>
+  <si>
+    <t>7.079B</t>
+  </si>
+  <si>
+    <t>9.379B</t>
+  </si>
+  <si>
+    <t>1.468T</t>
+  </si>
+  <si>
+    <t>162.947B</t>
+  </si>
+  <si>
+    <t>19.297B</t>
+  </si>
+  <si>
+    <t>63.181B</t>
+  </si>
+  <si>
+    <t>1.269T</t>
+  </si>
+  <si>
+    <t>46.953B</t>
+  </si>
+  <si>
+    <t>66.654B</t>
+  </si>
+  <si>
+    <t>651.247B</t>
+  </si>
+  <si>
+    <t>108.243B</t>
+  </si>
+  <si>
+    <t>1.424T</t>
+  </si>
+  <si>
+    <t>182.272B</t>
+  </si>
+  <si>
+    <t>173.471B</t>
+  </si>
+  <si>
+    <t>965.14B</t>
   </si>
 </sst>
 </file>
@@ -282,10 +282,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,7 +570,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,28 +647,28 @@
         <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>43992.871851851851</v>
+        <v>43996.914305555554</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2">
-        <v>86.79</v>
+        <v>86.11</v>
       </c>
       <c r="F2">
         <v>90.17</v>
       </c>
       <c r="G2">
-        <v>-3.3799999999999955</v>
+        <v>-4.0600000000000023</v>
       </c>
       <c r="H2">
-        <v>-3.75</v>
+        <v>-4.5</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J2">
-        <v>39.83</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="K2">
         <v>2.1800000000000002</v>
@@ -679,7 +680,7 @@
         <v>93.04</v>
       </c>
       <c r="N2">
-        <v>-3.94</v>
+        <v>-4.5</v>
       </c>
       <c r="O2">
         <v>0.42</v>
@@ -693,25 +694,25 @@
         <v>33</v>
       </c>
       <c r="C3" s="2">
-        <v>43992.871863425928</v>
+        <v>43996.914317129631</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
       </c>
       <c r="E3">
-        <v>15.11</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="F3">
         <v>17.87</v>
       </c>
       <c r="G3">
-        <v>-2.7600000000000016</v>
+        <v>-1.1300000000000026</v>
       </c>
       <c r="H3">
-        <v>-15.44</v>
+        <v>-6.32</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -740,28 +741,28 @@
         <v>36</v>
       </c>
       <c r="C4" s="2">
-        <v>43992.871874999997</v>
+        <v>43996.9143287037</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>136.82</v>
+        <v>135.72999999999999</v>
       </c>
       <c r="F4">
         <v>142.63999999999999</v>
       </c>
       <c r="G4">
-        <v>-5.8199999999999932</v>
+        <v>-6.9099999999999966</v>
       </c>
       <c r="H4">
-        <v>-4.08</v>
+        <v>-4.84</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J4">
-        <v>24.87</v>
+        <v>24.67</v>
       </c>
       <c r="K4">
         <v>5.5</v>
@@ -773,7 +774,7 @@
         <v>171.43</v>
       </c>
       <c r="N4">
-        <v>-4.1399999999999997</v>
+        <v>-4.84</v>
       </c>
       <c r="O4">
         <v>0.04</v>
@@ -787,40 +788,40 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>43992.871886574074</v>
+        <v>43996.914340277777</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5">
-        <v>348.82</v>
+        <v>338.8</v>
       </c>
       <c r="F5">
         <v>351.74</v>
       </c>
       <c r="G5">
-        <v>-2.9200000000000159</v>
+        <v>-12.939999999999998</v>
       </c>
       <c r="H5">
-        <v>-0.83</v>
+        <v>-3.68</v>
       </c>
       <c r="I5" t="s">
         <v>58</v>
       </c>
       <c r="J5">
-        <v>27.41</v>
+        <v>26.62</v>
       </c>
       <c r="K5">
         <v>12.73</v>
       </c>
       <c r="L5">
-        <v>190.3</v>
+        <v>192.17</v>
       </c>
       <c r="M5">
         <v>354.77</v>
       </c>
       <c r="N5">
-        <v>-0.84</v>
+        <v>-3.68</v>
       </c>
       <c r="O5">
         <v>0.78</v>
@@ -834,28 +835,28 @@
         <v>38</v>
       </c>
       <c r="C6" s="2">
-        <v>43992.871898148151</v>
+        <v>43996.914340277777</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
       </c>
       <c r="E6">
-        <v>94.75</v>
+        <v>92.46</v>
       </c>
       <c r="F6">
         <v>98.51</v>
       </c>
       <c r="G6">
-        <v>-3.7600000000000051</v>
+        <v>-6.0500000000000114</v>
       </c>
       <c r="H6">
-        <v>-3.82</v>
+        <v>-6.14</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J6">
-        <v>16.77</v>
+        <v>16.36</v>
       </c>
       <c r="K6">
         <v>5.65</v>
@@ -867,7 +868,7 @@
         <v>99.35</v>
       </c>
       <c r="N6">
-        <v>-3.82</v>
+        <v>-6.14</v>
       </c>
       <c r="O6">
         <v>0.05</v>
@@ -881,28 +882,28 @@
         <v>41</v>
       </c>
       <c r="C7" s="2">
-        <v>43992.87190972222</v>
+        <v>43996.914351851854</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7">
-        <v>93.8</v>
+        <v>94.87</v>
       </c>
       <c r="F7">
         <v>97.18</v>
       </c>
       <c r="G7">
-        <v>-3.3800000000000097</v>
+        <v>-2.3100000000000023</v>
       </c>
       <c r="H7">
-        <v>-3.48</v>
+        <v>-2.38</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J7">
-        <v>12.37</v>
+        <v>12.51</v>
       </c>
       <c r="K7">
         <v>7.59</v>
@@ -928,28 +929,28 @@
         <v>43</v>
       </c>
       <c r="C8" s="2">
-        <v>43992.871921296297</v>
+        <v>43996.914131944446</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8">
-        <v>148.31</v>
+        <v>147.01</v>
       </c>
       <c r="F8">
         <v>156.74</v>
       </c>
       <c r="G8">
-        <v>-8.4300000000000068</v>
+        <v>-9.7300000000000182</v>
       </c>
       <c r="H8">
-        <v>-5.38</v>
+        <v>-6.21</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J8">
-        <v>25.45</v>
+        <v>25.23</v>
       </c>
       <c r="K8">
         <v>5.83</v>
@@ -961,7 +962,7 @@
         <v>182.32</v>
       </c>
       <c r="N8">
-        <v>-5.38</v>
+        <v>-6.21</v>
       </c>
       <c r="O8">
         <v>0.36</v>
@@ -975,28 +976,28 @@
         <v>45</v>
       </c>
       <c r="C9" s="2">
-        <v>43992.871932870374</v>
+        <v>43996.914143518516</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="1">
-        <v>2655.3</v>
+        <v>2545.02</v>
       </c>
       <c r="F9" s="1">
-        <v>2654.51</v>
+        <v>2545.02</v>
       </c>
       <c r="G9">
-        <v>0.78999999999996362</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J9">
-        <v>126.83</v>
+        <v>121.56</v>
       </c>
       <c r="K9">
         <v>20.94</v>
@@ -1008,10 +1009,10 @@
         <v>2722.35</v>
       </c>
       <c r="N9">
-        <v>-0.27</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1022,43 +1023,43 @@
         <v>27</v>
       </c>
       <c r="C10" s="2">
-        <v>43992.871944444443</v>
+        <v>43996.914166666669</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10">
-        <v>52.05</v>
+      <c r="E10" s="1">
+        <v>51.12</v>
       </c>
       <c r="F10">
         <v>55.2</v>
       </c>
       <c r="G10">
-        <v>-3.1500000000000057</v>
+        <v>-4.0800000000000054</v>
       </c>
       <c r="H10">
-        <v>-5.71</v>
+        <v>-7.39</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J10">
-        <v>6.07</v>
+        <v>5.96</v>
       </c>
       <c r="K10">
         <v>8.58</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>37.35</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>72.17</v>
       </c>
       <c r="N10">
-        <v>-5.96</v>
+        <v>-7.39</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4510.54</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1069,28 +1070,28 @@
         <v>52</v>
       </c>
       <c r="C11" s="2">
-        <v>43992.87195601852</v>
+        <v>43996.914178240739</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
       </c>
       <c r="E11">
-        <v>124.26</v>
+        <v>123.15</v>
       </c>
       <c r="F11">
         <v>132.44</v>
       </c>
       <c r="G11">
-        <v>-8.1799999999999926</v>
+        <v>-9.289999999999992</v>
       </c>
       <c r="H11">
-        <v>-6.18</v>
+        <v>-7.01</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11">
-        <v>13.13</v>
+        <v>13.01</v>
       </c>
       <c r="K11">
         <v>9.4600000000000009</v>
@@ -1102,7 +1103,7 @@
         <v>150.55000000000001</v>
       </c>
       <c r="N11">
-        <v>-6.27</v>
+        <v>-61.4</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1116,28 +1117,28 @@
         <v>49</v>
       </c>
       <c r="C12" s="2">
-        <v>43992.871967592589</v>
+        <v>43996.914189814815</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
       </c>
       <c r="E12">
-        <v>230.04</v>
+        <v>228.58</v>
       </c>
       <c r="F12">
-        <v>236.73</v>
+        <v>228.58</v>
       </c>
       <c r="G12">
-        <v>-6.6899999999999977</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-2.83</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12">
-        <v>31.56</v>
+        <v>31.36</v>
       </c>
       <c r="K12">
         <v>7.29</v>
@@ -1149,7 +1150,7 @@
         <v>241.21</v>
       </c>
       <c r="N12">
-        <v>-2.95</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1163,28 +1164,28 @@
         <v>54</v>
       </c>
       <c r="C13" s="2">
-        <v>43992.871979166666</v>
+        <v>43996.914201388892</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="1">
-        <v>1444.49</v>
+        <v>1412.92</v>
       </c>
       <c r="F13" s="1">
-        <v>1464.7</v>
+        <v>1412.92</v>
       </c>
       <c r="G13">
-        <v>-20.210000000000036</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-1.38</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J13">
-        <v>29.14</v>
+        <v>28.5</v>
       </c>
       <c r="K13">
         <v>49.57</v>
@@ -1196,7 +1197,7 @@
         <v>1530.74</v>
       </c>
       <c r="N13">
-        <v>-1.47</v>
+        <v>-83.82</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1210,43 +1211,43 @@
         <v>47</v>
       </c>
       <c r="C14" s="2">
-        <v>43992.871990740743</v>
+        <v>43996.914212962962</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14">
-        <v>122.65</v>
+      <c r="E14" s="1">
+        <v>121.91</v>
       </c>
       <c r="F14">
         <v>129.87</v>
       </c>
       <c r="G14">
-        <v>-7.2199999999999989</v>
+        <v>-7.960000000000008</v>
       </c>
       <c r="H14">
-        <v>-5.56</v>
+        <v>-6.13</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J14">
-        <v>12.15</v>
+        <v>12.08</v>
       </c>
       <c r="K14">
         <v>10.1</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>90.56</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>158.75</v>
       </c>
       <c r="N14">
-        <v>-5.56</v>
+        <v>-6.13</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>987.95</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1256,29 +1257,29 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2">
-        <v>43992.872002314813</v>
+      <c r="C15" s="3">
+        <v>43996.914224537039</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15">
-        <v>193.73</v>
+        <v>187.74</v>
       </c>
       <c r="F15">
-        <v>193.93</v>
+        <v>187.74</v>
       </c>
       <c r="G15">
-        <v>-0.20000000000001705</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J15">
-        <v>32.28</v>
+        <v>31.28</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -1290,10 +1291,10 @@
         <v>198.52</v>
       </c>
       <c r="N15">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1304,28 +1305,28 @@
         <v>24</v>
       </c>
       <c r="C16" s="2">
-        <v>43992.872002314813</v>
+        <v>43996.914224537039</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16">
-        <v>158.72</v>
+        <v>155.26</v>
       </c>
       <c r="F16">
         <v>158.51</v>
       </c>
       <c r="G16">
-        <v>0.21000000000000796</v>
+        <v>-3.25</v>
       </c>
       <c r="H16">
-        <v>0.13</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J16">
-        <v>100.39</v>
+        <v>98.2</v>
       </c>
       <c r="K16">
         <v>1.58</v>
@@ -1337,10 +1338,10 @@
         <v>160.88999999999999</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="O16">
-        <v>1.47</v>
+        <v>18.440000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1351,25 +1352,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>43992.872013888889</v>
+        <v>43996.914236111108</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="1">
-        <v>1001.29</v>
+        <v>935.28</v>
       </c>
       <c r="F17" s="1">
         <v>1014</v>
       </c>
       <c r="G17">
-        <v>-12.710000000000036</v>
+        <v>-78.720000000000027</v>
       </c>
       <c r="H17">
-        <v>-1.25</v>
+        <v>-7.76</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
         <v>22</v>
@@ -1378,13 +1379,13 @@
         <v>-0.81</v>
       </c>
       <c r="L17">
-        <v>207.51</v>
+        <v>211</v>
       </c>
       <c r="M17" s="1">
         <v>1027.48</v>
       </c>
       <c r="N17">
-        <v>-1.25</v>
+        <v>-84.69</v>
       </c>
       <c r="O17">
         <v>1.0900000000000001</v>

--- a/Webscraping with BeautifulSoup/AlertTracker.xlsx
+++ b/Webscraping with BeautifulSoup/AlertTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping with BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B93434-ED65-493A-AA67-6902AFFDEB7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D10CD9-7D71-4CE7-9929-0602803CD657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28785" yWindow="15" windowWidth="22950" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="450" windowWidth="18810" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AlertTracker" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>Sector</t>
   </si>
@@ -222,9 +222,6 @@
     <t>1.269T</t>
   </si>
   <si>
-    <t>46.953B</t>
-  </si>
-  <si>
     <t>66.654B</t>
   </si>
   <si>
@@ -243,16 +240,37 @@
     <t>173.471B</t>
   </si>
   <si>
-    <t>965.14B</t>
+    <t>LastUpdate</t>
+  </si>
+  <si>
+    <t>ATIF</t>
+  </si>
+  <si>
+    <t>ATIF Holdings Limited</t>
+  </si>
+  <si>
+    <t>80.452M</t>
+  </si>
+  <si>
+    <t>ACY</t>
+  </si>
+  <si>
+    <t>AeroCentury Corp.</t>
+  </si>
+  <si>
+    <t>4.669M</t>
+  </si>
+  <si>
+    <t>964.58B</t>
+  </si>
+  <si>
+    <t>46.135B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,10 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -567,32 +584,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -603,43 +621,46 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -647,46 +668,49 @@
         <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>43996.914305555554</v>
-      </c>
-      <c r="D2" t="s">
+        <v>43989.358333275464</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43997.270833333336</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>86.11</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>90.17</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-4.0600000000000023</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-4.5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>55</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>39.520000000000003</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2.1800000000000002</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>61.13</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>93.04</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>-4.5</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.42</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -694,46 +718,49 @@
         <v>33</v>
       </c>
       <c r="C3" s="2">
-        <v>43996.914317129631</v>
-      </c>
-      <c r="D3" t="s">
+        <v>43990.358333275464</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43997.270833333336</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>16.739999999999998</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>17.87</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-1.1300000000000026</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-6.32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-1.7</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>8.25</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>34.99</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-15.56</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -741,46 +768,49 @@
         <v>36</v>
       </c>
       <c r="C4" s="2">
-        <v>43996.9143287037</v>
-      </c>
-      <c r="D4" t="s">
+        <v>43991.358333275464</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43997.270833333336</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>135.72999999999999</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>142.63999999999999</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-6.9099999999999966</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-4.84</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>57</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>24.67</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>5.5</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>71.33</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>171.43</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>-4.84</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -788,46 +818,49 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>43996.914340277777</v>
-      </c>
-      <c r="D5" t="s">
+        <v>43992.358333275464</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43997.270833333336</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>338.8</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>351.74</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-12.939999999999998</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-3.68</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>58</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>26.62</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>12.73</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>192.17</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>354.77</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-3.68</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.78</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -835,46 +868,49 @@
         <v>38</v>
       </c>
       <c r="C6" s="2">
-        <v>43996.914340277777</v>
-      </c>
-      <c r="D6" t="s">
+        <v>43993.358333275464</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43997.270833333336</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>92.46</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>98.51</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-6.0500000000000114</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-6.14</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>59</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>16.36</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5.65</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>62.55</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>99.35</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-6.14</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -882,517 +918,650 @@
         <v>41</v>
       </c>
       <c r="C7" s="2">
-        <v>43996.914351851854</v>
-      </c>
-      <c r="D7" t="s">
+        <v>43994.358333275464</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43997.271527777775</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94.87</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>97.18</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-2.3100000000000023</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-2.38</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>60</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>12.51</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>7.59</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>72.06</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>102.99</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-3.52</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.87</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43997.377083333333</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43997.271527777775</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>3.02</v>
+      </c>
+      <c r="G8">
+        <v>3.02</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <v>-16.513999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.71</v>
+      </c>
+      <c r="N8">
+        <v>9.32</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2">
-        <v>43996.914131944446</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" s="2">
+        <v>43996.358333275464</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43997.271527777775</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>147.01</v>
       </c>
-      <c r="F8">
+      <c r="G9">
         <v>156.74</v>
       </c>
-      <c r="G8">
+      <c r="H9">
         <v>-9.7300000000000182</v>
       </c>
-      <c r="H8">
+      <c r="I9">
         <v>-6.21</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J9" t="s">
         <v>61</v>
       </c>
-      <c r="J8">
+      <c r="K9">
         <v>25.23</v>
       </c>
-      <c r="K8">
+      <c r="L9">
         <v>5.83</v>
       </c>
-      <c r="L8">
+      <c r="M9">
         <v>103.11</v>
       </c>
-      <c r="M8">
+      <c r="N9">
         <v>182.32</v>
       </c>
-      <c r="N8">
+      <c r="O9">
         <v>-6.21</v>
       </c>
-      <c r="O8">
+      <c r="P9">
         <v>0.36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2">
-        <v>43996.914143518516</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" s="2">
+        <v>43997.364583333336</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43997.271527777775</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>2545.02</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G10" s="1">
         <v>2545.02</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>62</v>
       </c>
-      <c r="J9">
+      <c r="K10">
         <v>121.56</v>
       </c>
-      <c r="K9">
+      <c r="L10">
         <v>20.94</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M10" s="1">
         <v>1626.03</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N10" s="1">
         <v>2722.35</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43997.377083333333</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43997.271527777775</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>2.17</v>
+      </c>
+      <c r="G11">
+        <v>2.17</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11">
+        <v>180.83</v>
+      </c>
+      <c r="L11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.38</v>
+      </c>
+      <c r="N11">
+        <v>4.79</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2">
-        <v>43996.914166666669</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C12" s="2">
+        <v>43999.358333275464</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43997.271527777775</v>
+      </c>
+      <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1">
-        <v>51.12</v>
-      </c>
-      <c r="F10">
+      <c r="F12" s="1">
+        <v>50.23</v>
+      </c>
+      <c r="G12">
         <v>55.2</v>
       </c>
-      <c r="G10">
-        <v>-4.0800000000000054</v>
-      </c>
-      <c r="H10">
-        <v>-7.39</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H12">
+        <v>-4.970000000000006</v>
+      </c>
+      <c r="I12">
+        <v>-9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12">
+        <v>5.86</v>
+      </c>
+      <c r="L12">
+        <v>8.58</v>
+      </c>
+      <c r="M12" s="1">
+        <v>37.35</v>
+      </c>
+      <c r="N12" s="1">
+        <v>72.17</v>
+      </c>
+      <c r="O12">
+        <v>-10.31</v>
+      </c>
+      <c r="P12">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44001.358333275464</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43997.271527777775</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>123.15</v>
+      </c>
+      <c r="G13">
+        <v>132.44</v>
+      </c>
+      <c r="H13">
+        <v>-9.289999999999992</v>
+      </c>
+      <c r="I13">
+        <v>-7.01</v>
+      </c>
+      <c r="J13" t="s">
         <v>63</v>
       </c>
-      <c r="J10">
-        <v>5.96</v>
-      </c>
-      <c r="K10">
-        <v>8.58</v>
-      </c>
-      <c r="L10" s="1">
-        <v>37.35</v>
-      </c>
-      <c r="M10" s="1">
-        <v>72.17</v>
-      </c>
-      <c r="N10">
-        <v>-7.39</v>
-      </c>
-      <c r="O10">
-        <v>4510.54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="2">
-        <v>43996.914178240739</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11">
-        <v>123.15</v>
-      </c>
-      <c r="F11">
-        <v>132.44</v>
-      </c>
-      <c r="G11">
-        <v>-9.289999999999992</v>
-      </c>
-      <c r="H11">
-        <v>-7.01</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K13">
+        <v>13.01</v>
+      </c>
+      <c r="L13">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="M13">
+        <v>87.5</v>
+      </c>
+      <c r="N13">
+        <v>150.55000000000001</v>
+      </c>
+      <c r="O13">
+        <v>-61.4</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43997.378472222219</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43997.271527777775</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>228.58</v>
+      </c>
+      <c r="G14">
+        <v>228.58</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>64</v>
       </c>
-      <c r="J11">
-        <v>13.01</v>
-      </c>
-      <c r="K11">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="L11">
-        <v>87.5</v>
-      </c>
-      <c r="M11">
-        <v>150.55000000000001</v>
-      </c>
-      <c r="N11">
-        <v>-61.4</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="2">
-        <v>43996.914189814815</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="K14">
+        <v>31.36</v>
+      </c>
+      <c r="L14">
+        <v>7.29</v>
+      </c>
+      <c r="M14">
+        <v>137.1</v>
+      </c>
+      <c r="N14">
+        <v>241.21</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44003.358333275464</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43997.271527777775</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="E12">
-        <v>228.58</v>
-      </c>
-      <c r="F12">
-        <v>228.58</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="F15" s="1">
+        <v>1412.92</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1412.92</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15">
+        <v>28.5</v>
+      </c>
+      <c r="L15">
+        <v>49.57</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1008.87</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1530.74</v>
+      </c>
+      <c r="O15">
+        <v>-83.82</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44004.358333275464</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43997.271527777775</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1">
+        <v>121.91</v>
+      </c>
+      <c r="G16">
+        <v>129.87</v>
+      </c>
+      <c r="H16">
+        <v>-7.960000000000008</v>
+      </c>
+      <c r="I16">
+        <v>-6.13</v>
+      </c>
+      <c r="J16" t="s">
         <v>65</v>
       </c>
-      <c r="J12">
-        <v>31.36</v>
-      </c>
-      <c r="K12">
-        <v>7.29</v>
-      </c>
-      <c r="L12">
-        <v>137.1</v>
-      </c>
-      <c r="M12">
-        <v>241.21</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2">
-        <v>43996.914201388892</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1412.92</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1412.92</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13">
-        <v>28.5</v>
-      </c>
-      <c r="K13">
-        <v>49.57</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1008.87</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1530.74</v>
-      </c>
-      <c r="N13">
-        <v>-83.82</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2">
-        <v>43996.914212962962</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="K16">
+        <v>12.08</v>
+      </c>
+      <c r="L16">
+        <v>10.1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>90.56</v>
+      </c>
+      <c r="N16" s="1">
+        <v>158.75</v>
+      </c>
+      <c r="O16">
+        <v>-6.13</v>
+      </c>
+      <c r="P16">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44005.358333275464</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43997.271527777775</v>
+      </c>
+      <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="1">
-        <v>121.91</v>
-      </c>
-      <c r="F14">
-        <v>129.87</v>
-      </c>
-      <c r="G14">
-        <v>-7.960000000000008</v>
-      </c>
-      <c r="H14">
-        <v>-6.13</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="F17">
+        <v>187.74</v>
+      </c>
+      <c r="G17">
+        <v>187.74</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>66</v>
       </c>
-      <c r="J14">
-        <v>12.08</v>
-      </c>
-      <c r="K14">
-        <v>10.1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>90.56</v>
-      </c>
-      <c r="M14" s="1">
-        <v>158.75</v>
-      </c>
-      <c r="N14">
-        <v>-6.13</v>
-      </c>
-      <c r="O14">
-        <v>987.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3">
-        <v>43996.914224537039</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>187.74</v>
-      </c>
-      <c r="F15">
-        <v>187.74</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K17">
+        <v>31.28</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>130.78</v>
+      </c>
+      <c r="N17">
+        <v>198.52</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44006.358333275464</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43997.271527777775</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>155.26</v>
+      </c>
+      <c r="G18">
+        <v>158.51</v>
+      </c>
+      <c r="H18">
+        <v>-3.25</v>
+      </c>
+      <c r="I18">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="J18" t="s">
         <v>67</v>
       </c>
-      <c r="J15">
-        <v>31.28</v>
-      </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-      <c r="L15">
-        <v>130.78</v>
-      </c>
-      <c r="M15">
-        <v>198.52</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2">
-        <v>43996.914224537039</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>155.26</v>
-      </c>
-      <c r="F16">
-        <v>158.51</v>
-      </c>
-      <c r="G16">
-        <v>-3.25</v>
-      </c>
-      <c r="H16">
+      <c r="K18">
+        <v>98.2</v>
+      </c>
+      <c r="L18">
+        <v>1.58</v>
+      </c>
+      <c r="M18">
+        <v>82.07</v>
+      </c>
+      <c r="N18">
+        <v>160.88999999999999</v>
+      </c>
+      <c r="O18">
         <v>-2.0499999999999998</v>
       </c>
-      <c r="I16" t="s">
+      <c r="P18">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44007.358333275464</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43997.271527777775</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1">
+        <v>935.28</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1014</v>
+      </c>
+      <c r="H19">
+        <v>-78.720000000000027</v>
+      </c>
+      <c r="I19">
+        <v>-7.76</v>
+      </c>
+      <c r="J19" t="s">
         <v>68</v>
       </c>
-      <c r="J16">
-        <v>98.2</v>
-      </c>
-      <c r="K16">
-        <v>1.58</v>
-      </c>
-      <c r="L16">
-        <v>82.07</v>
-      </c>
-      <c r="M16">
-        <v>160.88999999999999</v>
-      </c>
-      <c r="N16">
-        <v>-2.0499999999999998</v>
-      </c>
-      <c r="O16">
-        <v>18.440000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2">
-        <v>43996.914236111108</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1">
-        <v>935.28</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1014</v>
-      </c>
-      <c r="G17">
-        <v>-78.720000000000027</v>
-      </c>
-      <c r="H17">
-        <v>-7.76</v>
-      </c>
-      <c r="I17" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K19" t="s">
         <v>22</v>
       </c>
-      <c r="K17">
+      <c r="L19">
         <v>-0.81</v>
       </c>
-      <c r="L17">
+      <c r="M19">
         <v>211</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N19" s="1">
         <v>1027.48</v>
       </c>
-      <c r="N17">
+      <c r="O19">
         <v>-84.69</v>
       </c>
-      <c r="O17">
+      <c r="P19">
         <v>1.0900000000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:O17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:P19">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Webscraping with BeautifulSoup/AlertTracker.xlsx
+++ b/Webscraping with BeautifulSoup/AlertTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping with BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D10CD9-7D71-4CE7-9929-0602803CD657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80B1F16-7F04-4D0D-933D-2651E73FCF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="450" windowWidth="18810" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35820" yWindow="4515" windowWidth="18810" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AlertTracker" sheetId="2" r:id="rId1"/>
@@ -198,73 +198,73 @@
     <t>Alphabet Inc.</t>
   </si>
   <si>
-    <t>26.589B</t>
-  </si>
-  <si>
-    <t>7.079B</t>
-  </si>
-  <si>
-    <t>9.379B</t>
+    <t>LastUpdate</t>
+  </si>
+  <si>
+    <t>ATIF</t>
+  </si>
+  <si>
+    <t>ATIF Holdings Limited</t>
+  </si>
+  <si>
+    <t>ACY</t>
+  </si>
+  <si>
+    <t>AeroCentury Corp.</t>
+  </si>
+  <si>
+    <t>48.578B</t>
+  </si>
+  <si>
+    <t>9.858B</t>
+  </si>
+  <si>
+    <t>1.304T</t>
+  </si>
+  <si>
+    <t>59.063M</t>
+  </si>
+  <si>
+    <t>1.526T</t>
+  </si>
+  <si>
+    <t>189.269B</t>
+  </si>
+  <si>
+    <t>182.161B</t>
+  </si>
+  <si>
+    <t>7.202B</t>
+  </si>
+  <si>
+    <t>65.231B</t>
+  </si>
+  <si>
+    <t>671.39B</t>
+  </si>
+  <si>
+    <t>987.09B</t>
   </si>
   <si>
     <t>1.468T</t>
   </si>
   <si>
-    <t>162.947B</t>
-  </si>
-  <si>
-    <t>19.297B</t>
-  </si>
-  <si>
-    <t>63.181B</t>
-  </si>
-  <si>
-    <t>1.269T</t>
-  </si>
-  <si>
-    <t>66.654B</t>
-  </si>
-  <si>
-    <t>651.247B</t>
-  </si>
-  <si>
-    <t>108.243B</t>
-  </si>
-  <si>
-    <t>1.424T</t>
-  </si>
-  <si>
-    <t>182.272B</t>
-  </si>
-  <si>
-    <t>173.471B</t>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-  </si>
-  <si>
-    <t>ATIF</t>
-  </si>
-  <si>
-    <t>ATIF Holdings Limited</t>
-  </si>
-  <si>
-    <t>80.452M</t>
-  </si>
-  <si>
-    <t>ACY</t>
-  </si>
-  <si>
-    <t>AeroCentury Corp.</t>
-  </si>
-  <si>
-    <t>4.669M</t>
-  </si>
-  <si>
-    <t>964.58B</t>
-  </si>
-  <si>
-    <t>46.135B</t>
+    <t>4.127M</t>
+  </si>
+  <si>
+    <t>169.291B</t>
+  </si>
+  <si>
+    <t>20.159B</t>
+  </si>
+  <si>
+    <t>70.421B</t>
+  </si>
+  <si>
+    <t>111.12B</t>
+  </si>
+  <si>
+    <t>26.999B</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -671,28 +671,28 @@
         <v>43989.358333275464</v>
       </c>
       <c r="D2" s="2">
-        <v>43997.270833333336</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
       </c>
       <c r="F2">
-        <v>86.11</v>
+        <v>87.44</v>
       </c>
       <c r="G2">
         <v>90.17</v>
       </c>
       <c r="H2">
-        <v>-4.0600000000000023</v>
+        <v>-2.730000000000004</v>
       </c>
       <c r="I2">
-        <v>-4.5</v>
+        <v>-3.03</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="K2">
-        <v>39.520000000000003</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="L2">
         <v>2.1800000000000002</v>
@@ -721,25 +721,25 @@
         <v>43990.358333275464</v>
       </c>
       <c r="D3" s="2">
-        <v>43997.270833333336</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
       </c>
       <c r="F3">
-        <v>16.739999999999998</v>
+        <v>17.03</v>
       </c>
       <c r="G3">
         <v>17.87</v>
       </c>
       <c r="H3">
-        <v>-1.1300000000000026</v>
+        <v>-0.83999999999999986</v>
       </c>
       <c r="I3">
-        <v>-6.32</v>
+        <v>-4.7</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
@@ -771,28 +771,28 @@
         <v>43991.358333275464</v>
       </c>
       <c r="D4" s="2">
-        <v>43997.270833333336</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4">
-        <v>135.72999999999999</v>
+        <v>142.66</v>
       </c>
       <c r="G4">
         <v>142.63999999999999</v>
       </c>
       <c r="H4">
-        <v>-6.9099999999999966</v>
+        <v>2.0000000000010232E-2</v>
       </c>
       <c r="I4">
-        <v>-4.84</v>
+        <v>0.01</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K4">
-        <v>24.67</v>
+        <v>25.93</v>
       </c>
       <c r="L4">
         <v>5.5</v>
@@ -807,7 +807,7 @@
         <v>-4.84</v>
       </c>
       <c r="P4">
-        <v>0.04</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -821,34 +821,34 @@
         <v>43992.358333275464</v>
       </c>
       <c r="D5" s="2">
-        <v>43997.270833333336</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5">
-        <v>338.8</v>
+        <v>352.08</v>
       </c>
       <c r="G5">
         <v>351.74</v>
       </c>
       <c r="H5">
-        <v>-12.939999999999998</v>
+        <v>0.33999999999997499</v>
       </c>
       <c r="I5">
-        <v>-3.68</v>
+        <v>0.1</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K5">
-        <v>26.62</v>
+        <v>27.66</v>
       </c>
       <c r="L5">
         <v>12.73</v>
       </c>
       <c r="M5">
-        <v>192.17</v>
+        <v>192.58</v>
       </c>
       <c r="N5">
         <v>354.77</v>
@@ -871,28 +871,28 @@
         <v>43993.358333275464</v>
       </c>
       <c r="D6" s="2">
-        <v>43997.270833333336</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
       </c>
       <c r="F6">
-        <v>92.46</v>
+        <v>96.06</v>
       </c>
       <c r="G6">
         <v>98.51</v>
       </c>
       <c r="H6">
-        <v>-6.0500000000000114</v>
+        <v>-2.4500000000000028</v>
       </c>
       <c r="I6">
-        <v>-6.14</v>
+        <v>-2.4900000000000002</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="K6">
-        <v>16.36</v>
+        <v>17</v>
       </c>
       <c r="L6">
         <v>5.65</v>
@@ -921,28 +921,28 @@
         <v>43994.358333275464</v>
       </c>
       <c r="D7" s="2">
-        <v>43997.271527777775</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
       </c>
       <c r="F7">
-        <v>94.87</v>
+        <v>99.11</v>
       </c>
       <c r="G7">
         <v>97.18</v>
       </c>
       <c r="H7">
-        <v>-2.3100000000000023</v>
+        <v>1.9299999999999926</v>
       </c>
       <c r="I7">
-        <v>-2.38</v>
+        <v>1.99</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K7">
-        <v>12.51</v>
+        <v>13.07</v>
       </c>
       <c r="L7">
         <v>7.59</v>
@@ -957,39 +957,39 @@
         <v>-3.52</v>
       </c>
       <c r="P7">
-        <v>0.87</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2">
         <v>43997.377083333333</v>
       </c>
       <c r="D8" s="2">
-        <v>43997.271527777775</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8">
-        <v>3.02</v>
+        <v>2.67</v>
       </c>
       <c r="G8">
         <v>3.02</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-0.35000000000000009</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>-11.59</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s">
         <v>22</v>
@@ -1004,7 +1004,7 @@
         <v>9.32</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>-11.59</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1021,28 +1021,28 @@
         <v>43996.358333275464</v>
       </c>
       <c r="D9" s="2">
-        <v>43997.271527777775</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="F9">
-        <v>147.01</v>
+        <v>151.78</v>
       </c>
       <c r="G9">
         <v>156.74</v>
       </c>
       <c r="H9">
-        <v>-9.7300000000000182</v>
+        <v>-4.960000000000008</v>
       </c>
       <c r="I9">
-        <v>-6.21</v>
+        <v>-3.16</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>25.23</v>
+        <v>26.05</v>
       </c>
       <c r="L9">
         <v>5.83</v>
@@ -1071,28 +1071,28 @@
         <v>43997.364583333336</v>
       </c>
       <c r="D10" s="2">
-        <v>43997.271527777775</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="1">
-        <v>2545.02</v>
+        <v>2615.27</v>
       </c>
       <c r="G10" s="1">
         <v>2545.02</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>70.25</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="J10" t="s">
         <v>62</v>
       </c>
       <c r="K10">
-        <v>121.56</v>
+        <v>124.92</v>
       </c>
       <c r="L10">
         <v>20.94</v>
@@ -1107,42 +1107,42 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2">
         <v>43997.377083333333</v>
       </c>
       <c r="D11" s="2">
-        <v>43997.271527777775</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11">
-        <v>2.17</v>
+        <v>1.885</v>
       </c>
       <c r="G11">
         <v>2.17</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-0.28499999999999992</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>-13.13</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>180.83</v>
+        <v>157.08000000000001</v>
       </c>
       <c r="L11">
         <v>1.2E-2</v>
@@ -1154,7 +1154,7 @@
         <v>4.79</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>-14.75</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1171,28 +1171,28 @@
         <v>43999.358333275464</v>
       </c>
       <c r="D12" s="2">
-        <v>43997.271527777775</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="1">
-        <v>50.23</v>
+        <v>52.89</v>
       </c>
       <c r="G12">
         <v>55.2</v>
       </c>
       <c r="H12">
-        <v>-4.970000000000006</v>
+        <v>-2.3100000000000023</v>
       </c>
       <c r="I12">
-        <v>-9</v>
+        <v>-4.18</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>5.86</v>
+        <v>6.17</v>
       </c>
       <c r="L12">
         <v>8.58</v>
@@ -1221,28 +1221,28 @@
         <v>44001.358333275464</v>
       </c>
       <c r="D13" s="2">
-        <v>43997.271527777775</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
       </c>
       <c r="F13">
-        <v>123.15</v>
+        <v>130.11000000000001</v>
       </c>
       <c r="G13">
         <v>132.44</v>
       </c>
       <c r="H13">
-        <v>-9.289999999999992</v>
+        <v>-2.3299999999999841</v>
       </c>
       <c r="I13">
-        <v>-7.01</v>
+        <v>-1.76</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K13">
-        <v>13.01</v>
+        <v>13.75</v>
       </c>
       <c r="L13">
         <v>9.4600000000000009</v>
@@ -1271,28 +1271,28 @@
         <v>43997.378472222219</v>
       </c>
       <c r="D14" s="2">
-        <v>43997.271527777775</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
       </c>
       <c r="F14">
-        <v>228.58</v>
+        <v>235.65</v>
       </c>
       <c r="G14">
         <v>228.58</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K14">
-        <v>31.36</v>
+        <v>32.33</v>
       </c>
       <c r="L14">
         <v>7.29</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1321,28 +1321,28 @@
         <v>44003.358333275464</v>
       </c>
       <c r="D15" s="2">
-        <v>43997.271527777775</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="1">
-        <v>1412.92</v>
+        <v>1446.47</v>
       </c>
       <c r="G15" s="1">
         <v>1412.92</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>33.549999999999955</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K15">
-        <v>28.5</v>
+        <v>29.18</v>
       </c>
       <c r="L15">
         <v>49.57</v>
@@ -1357,7 +1357,7 @@
         <v>-83.82</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1371,28 +1371,28 @@
         <v>44004.358333275464</v>
       </c>
       <c r="D16" s="2">
-        <v>43997.271527777775</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="1">
-        <v>121.91</v>
+        <v>125.15</v>
       </c>
       <c r="G16">
         <v>129.87</v>
       </c>
       <c r="H16">
-        <v>-7.960000000000008</v>
+        <v>-4.7199999999999989</v>
       </c>
       <c r="I16">
-        <v>-6.13</v>
+        <v>-3.63</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K16">
-        <v>12.08</v>
+        <v>12.4</v>
       </c>
       <c r="L16">
         <v>10.1</v>
@@ -1421,28 +1421,28 @@
         <v>44005.358333275464</v>
       </c>
       <c r="D17" s="2">
-        <v>43997.271527777775</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
       <c r="F17">
-        <v>187.74</v>
+        <v>193.57</v>
       </c>
       <c r="G17">
         <v>187.74</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.8299999999999841</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K17">
-        <v>31.28</v>
+        <v>32.25</v>
       </c>
       <c r="L17">
         <v>6</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1471,28 +1471,28 @@
         <v>44006.358333275464</v>
       </c>
       <c r="D18" s="2">
-        <v>43997.271527777775</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18">
-        <v>155.26</v>
+        <v>161.22</v>
       </c>
       <c r="G18">
         <v>158.51</v>
       </c>
       <c r="H18">
-        <v>-3.25</v>
+        <v>2.710000000000008</v>
       </c>
       <c r="I18">
-        <v>-2.0499999999999998</v>
+        <v>1.71</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K18">
-        <v>98.2</v>
+        <v>101.97</v>
       </c>
       <c r="L18">
         <v>1.58</v>
@@ -1501,7 +1501,7 @@
         <v>82.07</v>
       </c>
       <c r="N18">
-        <v>160.88999999999999</v>
+        <v>162.83000000000001</v>
       </c>
       <c r="O18">
         <v>-2.0499999999999998</v>
@@ -1521,25 +1521,25 @@
         <v>44007.358333275464</v>
       </c>
       <c r="D19" s="2">
-        <v>43997.271527777775</v>
+        <v>43998.943749999999</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="1">
-        <v>935.28</v>
+        <v>982.13</v>
       </c>
       <c r="G19" s="1">
         <v>1014</v>
       </c>
       <c r="H19">
-        <v>-78.720000000000027</v>
+        <v>-31.870000000000005</v>
       </c>
       <c r="I19">
-        <v>-7.76</v>
+        <v>-3.14</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
         <v>22</v>

--- a/Webscraping with BeautifulSoup/AlertTracker.xlsx
+++ b/Webscraping with BeautifulSoup/AlertTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping with BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80B1F16-7F04-4D0D-933D-2651E73FCF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACBCA2B-398F-4AE4-AFE3-7E0497F1C75C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35820" yWindow="4515" windowWidth="18810" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,7 +222,7 @@
     <t>1.304T</t>
   </si>
   <si>
-    <t>59.063M</t>
+    <t>69.886M</t>
   </si>
   <si>
     <t>1.526T</t>
@@ -671,7 +671,7 @@
         <v>43989.358333275464</v>
       </c>
       <c r="D2" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
@@ -721,7 +721,7 @@
         <v>43990.358333275464</v>
       </c>
       <c r="D3" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -771,7 +771,7 @@
         <v>43991.358333275464</v>
       </c>
       <c r="D4" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -821,7 +821,7 @@
         <v>43992.358333275464</v>
       </c>
       <c r="D5" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -871,7 +871,7 @@
         <v>43993.358333275464</v>
       </c>
       <c r="D6" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -921,7 +921,7 @@
         <v>43994.358333275464</v>
       </c>
       <c r="D7" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -971,7 +971,7 @@
         <v>43997.377083333333</v>
       </c>
       <c r="D8" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
@@ -1021,7 +1021,7 @@
         <v>43996.358333275464</v>
       </c>
       <c r="D9" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -1071,7 +1071,7 @@
         <v>43997.364583333336</v>
       </c>
       <c r="D10" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -1121,7 +1121,7 @@
         <v>43997.377083333333</v>
       </c>
       <c r="D11" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -1171,7 +1171,7 @@
         <v>43999.358333275464</v>
       </c>
       <c r="D12" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -1221,7 +1221,7 @@
         <v>44001.358333275464</v>
       </c>
       <c r="D13" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
@@ -1271,7 +1271,7 @@
         <v>43997.378472222219</v>
       </c>
       <c r="D14" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
@@ -1321,7 +1321,7 @@
         <v>44003.358333275464</v>
       </c>
       <c r="D15" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -1371,7 +1371,7 @@
         <v>44004.358333275464</v>
       </c>
       <c r="D16" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -1421,7 +1421,7 @@
         <v>44005.358333275464</v>
       </c>
       <c r="D17" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1471,7 +1471,7 @@
         <v>44006.358333275464</v>
       </c>
       <c r="D18" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -1521,7 +1521,7 @@
         <v>44007.358333275464</v>
       </c>
       <c r="D19" s="2">
-        <v>43998.943749999999</v>
+        <v>43999.286111111112</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
